--- a/medicine/Médecine vétérinaire/Ornithomya_cecropis/Ornithomya_cecropis.xlsx
+++ b/medicine/Médecine vétérinaire/Ornithomya_cecropis/Ornithomya_cecropis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ornithomya cecropis  est une espèce de mouches parasites de la famille des Hippoboscidae. Elle a été isolée pour la première fois sur l'Hirondelle des Mascareignes (Phedina borbonica) à Madagascar[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ornithomya cecropis  est une espèce de mouches parasites de la famille des Hippoboscidae. Elle a été isolée pour la première fois sur l'Hirondelle des Mascareignes (Phedina borbonica) à Madagascar.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) A. M. Hutson, « New species of the Ornithomya biloba-group and records of other Hippoboscidae (Diptera) from Africa », Journal of Entomology Series B, Taxonomy, vol. 40, no 2,‎ 1971, p. 139–148 (DOI 10.1111/j.1365-3113.1971.tb00116.x)
 </t>
